--- a/Soen287_A3_Tasks_Allocation.xlsx
+++ b/Soen287_A3_Tasks_Allocation.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveconcordia-my.sharepoint.com/personal/m_harifz_live_concordia_ca/Documents/TAs/Fall 2021/Web Programming (SOEN 287)/A3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reuvenostrofsky/Desktop/Concordia/Fall 2021/SOEN287/SOEN-287/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1847" documentId="13_ncr:1_{576CF62D-4341-0A42-87D3-796ED19D17E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36E739CA-E53E-4971-BD17-824A8AEF11CD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0794529E-96D5-464E-AAA0-B600242621EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,17 +811,44 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -837,43 +864,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1390,48 +1390,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="114" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.5546875" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="1" max="1" width="45.5" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="24" style="2" customWidth="1"/>
-    <col min="8" max="9" width="23.5546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.88671875" customWidth="1"/>
-    <col min="11" max="11" width="47.44140625" customWidth="1"/>
-    <col min="12" max="12" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" customWidth="1"/>
+    <col min="11" max="11" width="47.5" customWidth="1"/>
+    <col min="12" max="12" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" customHeight="1">
-      <c r="A1" s="61"/>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
       <c r="I1" s="55"/>
     </row>
-    <row r="2" spans="1:19" ht="30" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
+    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="55"/>
     </row>
-    <row r="3" spans="1:19" ht="30" customHeight="1">
+    <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1442,10 +1442,10 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:19" ht="30" customHeight="1">
+    <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1461,7 +1461,7 @@
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
     </row>
-    <row r="5" spans="1:19" ht="30" customHeight="1">
+    <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -1480,7 +1480,7 @@
       <c r="R5" s="29"/>
       <c r="S5" s="29"/>
     </row>
-    <row r="6" spans="1:19" ht="30" customHeight="1">
+    <row r="6" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -1499,7 +1499,7 @@
       <c r="R6" s="29"/>
       <c r="S6" s="29"/>
     </row>
-    <row r="7" spans="1:19" ht="30" customHeight="1">
+    <row r="7" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -1518,7 +1518,7 @@
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
     </row>
-    <row r="8" spans="1:19" ht="30" customHeight="1">
+    <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -1537,14 +1537,14 @@
       <c r="R8" s="32"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="27" customHeight="1" thickBot="1">
-      <c r="E9" s="68"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="57"/>
+    <row r="9" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="57"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
       <c r="L9" s="30"/>
       <c r="M9" s="31"/>
       <c r="N9" s="32"/>
@@ -1554,89 +1554,89 @@
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
     </row>
-    <row r="10" spans="1:19" ht="33" customHeight="1" thickBot="1">
+    <row r="10" spans="1:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="58" t="s">
+      <c r="C10" s="76"/>
+      <c r="D10" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="57"/>
-    </row>
-    <row r="11" spans="1:19" ht="30" customHeight="1" thickBot="1">
+      <c r="E10" s="75"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="74"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71" t="s">
+      <c r="C11" s="67"/>
+      <c r="D11" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="72"/>
-    </row>
-    <row r="12" spans="1:19" ht="30" customHeight="1" thickBot="1">
+      <c r="E11" s="69"/>
+    </row>
+    <row r="12" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="66" t="s">
+      <c r="C12" s="63"/>
+      <c r="D12" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="67"/>
-    </row>
-    <row r="13" spans="1:19" ht="30" customHeight="1" thickBot="1">
+      <c r="E12" s="63"/>
+    </row>
+    <row r="13" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="66" t="s">
+      <c r="C13" s="63"/>
+      <c r="D13" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="67"/>
-    </row>
-    <row r="14" spans="1:19" ht="30" customHeight="1" thickBot="1">
+      <c r="E13" s="63"/>
+    </row>
+    <row r="14" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="66" t="s">
+      <c r="C14" s="63"/>
+      <c r="D14" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="67"/>
-    </row>
-    <row r="15" spans="1:19" ht="33.75" customHeight="1" thickBot="1">
+      <c r="E14" s="63"/>
+    </row>
+    <row r="15" spans="1:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="66" t="s">
+      <c r="C15" s="63"/>
+      <c r="D15" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="67"/>
+      <c r="E15" s="63"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
       <c r="O15" s="29"/>
@@ -1645,20 +1645,20 @@
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
     </row>
-    <row r="16" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="66" t="s">
+      <c r="C16" s="63"/>
+      <c r="D16" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
@@ -1667,20 +1667,20 @@
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
     </row>
-    <row r="17" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="66" t="s">
+      <c r="C17" s="63"/>
+      <c r="D17" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
@@ -1689,19 +1689,19 @@
       <c r="R17" s="29"/>
       <c r="S17" s="29"/>
     </row>
-    <row r="18" spans="1:19" ht="28.8" customHeight="1">
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-    </row>
-    <row r="19" spans="1:19" ht="15" thickBot="1">
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-    </row>
-    <row r="20" spans="1:19" ht="45" customHeight="1" thickBot="1">
+    <row r="18" spans="1:19" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+    </row>
+    <row r="19" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+    </row>
+    <row r="20" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>32</v>
       </c>
@@ -1744,7 +1744,7 @@
       <c r="R20" s="29"/>
       <c r="S20" s="29"/>
     </row>
-    <row r="21" spans="1:19" ht="51.75" customHeight="1" thickBot="1">
+    <row r="21" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>86</v>
       </c>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="L21" s="35"/>
     </row>
-    <row r="22" spans="1:19" ht="47.25" customHeight="1" thickBot="1">
+    <row r="22" spans="1:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>15</v>
       </c>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="L22" s="35"/>
     </row>
-    <row r="23" spans="1:19" ht="18" customHeight="1" thickBot="1">
+    <row r="23" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>2</v>
       </c>
@@ -1832,7 +1832,7 @@
       <c r="K23" s="43"/>
       <c r="L23" s="36"/>
     </row>
-    <row r="24" spans="1:19" ht="54.9" customHeight="1" thickBot="1">
+    <row r="24" spans="1:19" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>33</v>
       </c>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="1:19" ht="18" customHeight="1" thickBot="1">
+    <row r="25" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>3</v>
       </c>
@@ -1884,7 +1884,7 @@
       <c r="K25" s="43"/>
       <c r="L25" s="36"/>
     </row>
-    <row r="26" spans="1:19" s="1" customFormat="1" ht="54.9" customHeight="1" thickBot="1">
+    <row r="26" spans="1:19" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>33</v>
       </c>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="1:19" ht="18" customHeight="1" thickBot="1">
+    <row r="27" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>4</v>
       </c>
@@ -1936,7 +1936,7 @@
       <c r="K27" s="43"/>
       <c r="L27" s="36"/>
     </row>
-    <row r="28" spans="1:19" ht="54.75" customHeight="1" thickBot="1">
+    <row r="28" spans="1:19" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>39</v>
       </c>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="1:19" ht="54.9" customHeight="1" thickBot="1">
+    <row r="29" spans="1:19" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>33</v>
       </c>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:19" ht="18" customHeight="1" thickBot="1">
+    <row r="30" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>5</v>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="K30" s="43"/>
       <c r="L30" s="36"/>
     </row>
-    <row r="31" spans="1:19" ht="124.5" customHeight="1" thickBot="1">
+    <row r="31" spans="1:19" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>42</v>
       </c>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="L31" s="37"/>
     </row>
-    <row r="32" spans="1:19" ht="78" customHeight="1" thickBot="1">
+    <row r="32" spans="1:19" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>41</v>
       </c>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="L32" s="37"/>
     </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" ht="54.9" customHeight="1" thickBot="1">
+    <row r="33" spans="1:12" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>33</v>
       </c>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="L33" s="37"/>
     </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1">
+    <row r="34" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>6</v>
       </c>
@@ -2148,7 +2148,7 @@
       <c r="K34" s="43"/>
       <c r="L34" s="36"/>
     </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" ht="54.9" customHeight="1" thickBot="1">
+    <row r="35" spans="1:12" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>53</v>
       </c>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="L35" s="37"/>
     </row>
-    <row r="36" spans="1:12" ht="72.75" customHeight="1" thickBot="1">
+    <row r="36" spans="1:12" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
       <c r="B36" s="13" t="s">
         <v>44</v>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="L36" s="37"/>
     </row>
-    <row r="37" spans="1:12" ht="111" customHeight="1" thickBot="1">
+    <row r="37" spans="1:12" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="54"/>
       <c r="B37" s="13" t="s">
         <v>45</v>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="L37" s="37"/>
     </row>
-    <row r="38" spans="1:12" ht="54.9" customHeight="1" thickBot="1">
+    <row r="38" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>33</v>
       </c>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="L38" s="37"/>
     </row>
-    <row r="39" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="39" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>7</v>
       </c>
@@ -2304,7 +2304,7 @@
       <c r="K39" s="43"/>
       <c r="L39" s="36"/>
     </row>
-    <row r="40" spans="1:12" ht="61.5" customHeight="1" thickBot="1">
+    <row r="40" spans="1:12" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>54</v>
       </c>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="L40" s="37"/>
     </row>
-    <row r="41" spans="1:12" ht="93" customHeight="1" thickBot="1">
+    <row r="41" spans="1:12" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>48</v>
       </c>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="L41" s="37"/>
     </row>
-    <row r="42" spans="1:12" ht="54.9" customHeight="1" thickBot="1">
+    <row r="42" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
         <v>33</v>
       </c>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="L42" s="37"/>
     </row>
-    <row r="43" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="43" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>8</v>
       </c>
@@ -2428,7 +2428,7 @@
       <c r="K43" s="43"/>
       <c r="L43" s="36"/>
     </row>
-    <row r="44" spans="1:12" ht="124.5" customHeight="1" thickBot="1">
+    <row r="44" spans="1:12" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>51</v>
       </c>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="L44" s="37"/>
     </row>
-    <row r="45" spans="1:12" ht="63" customHeight="1" thickBot="1">
+    <row r="45" spans="1:12" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>66</v>
       </c>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="L45" s="37"/>
     </row>
-    <row r="46" spans="1:12" ht="54.9" customHeight="1" thickBot="1">
+    <row r="46" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
         <v>33</v>
       </c>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="L46" s="37"/>
     </row>
-    <row r="47" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="47" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>9</v>
       </c>
@@ -2552,7 +2552,7 @@
       <c r="K47" s="43"/>
       <c r="L47" s="36"/>
     </row>
-    <row r="48" spans="1:12" ht="78" customHeight="1" thickBot="1">
+    <row r="48" spans="1:12" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>52</v>
       </c>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="L48" s="37"/>
     </row>
-    <row r="49" spans="1:12" ht="137.25" customHeight="1" thickBot="1">
+    <row r="49" spans="1:12" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>56</v>
       </c>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="L49" s="37"/>
     </row>
-    <row r="50" spans="1:12" ht="54.9" customHeight="1" thickBot="1">
+    <row r="50" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
         <v>33</v>
       </c>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="L50" s="37"/>
     </row>
-    <row r="51" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="51" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>10</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="K51" s="43"/>
       <c r="L51" s="36"/>
     </row>
-    <row r="52" spans="1:12" ht="54.9" customHeight="1" thickBot="1">
+    <row r="52" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>58</v>
       </c>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="L52" s="37"/>
     </row>
-    <row r="53" spans="1:12" ht="54.9" customHeight="1" thickBot="1">
+    <row r="53" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>65</v>
       </c>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="L53" s="37"/>
     </row>
-    <row r="54" spans="1:12" ht="54.9" customHeight="1" thickBot="1">
+    <row r="54" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="53" t="s">
         <v>33</v>
       </c>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="L54" s="37"/>
     </row>
-    <row r="55" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="55" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>11</v>
       </c>
@@ -2800,7 +2800,7 @@
       <c r="K55" s="43"/>
       <c r="L55" s="36"/>
     </row>
-    <row r="56" spans="1:12" ht="96" customHeight="1" thickBot="1">
+    <row r="56" spans="1:12" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>62</v>
       </c>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="L56" s="37"/>
     </row>
-    <row r="57" spans="1:12" ht="154.5" customHeight="1" thickBot="1">
+    <row r="57" spans="1:12" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>63</v>
       </c>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="L57" s="37"/>
     </row>
-    <row r="58" spans="1:12" ht="54.9" customHeight="1" thickBot="1">
+    <row r="58" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="53" t="s">
         <v>33</v>
       </c>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="L58" s="37"/>
     </row>
-    <row r="59" spans="1:12" ht="16.2" thickBot="1">
+    <row r="59" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>12</v>
       </c>
@@ -2924,7 +2924,7 @@
       <c r="K59" s="43"/>
       <c r="L59" s="36"/>
     </row>
-    <row r="60" spans="1:12" ht="54.9" customHeight="1" thickBot="1">
+    <row r="60" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>67</v>
       </c>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="L60" s="37"/>
     </row>
-    <row r="61" spans="1:12" ht="54.9" customHeight="1" thickBot="1">
+    <row r="61" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>64</v>
       </c>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="L61" s="37"/>
     </row>
-    <row r="62" spans="1:12" ht="54.9" customHeight="1" thickBot="1">
+    <row r="62" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="53" t="s">
         <v>33</v>
       </c>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="L62" s="37"/>
     </row>
-    <row r="63" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="63" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>13</v>
       </c>
@@ -3048,7 +3048,7 @@
       <c r="K63" s="43"/>
       <c r="L63" s="36"/>
     </row>
-    <row r="64" spans="1:12" ht="63.75" customHeight="1" thickBot="1">
+    <row r="64" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>71</v>
       </c>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="L64" s="37"/>
     </row>
-    <row r="65" spans="1:12" ht="147.75" customHeight="1" thickBot="1">
+    <row r="65" spans="1:12" ht="147.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>73</v>
       </c>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="L65" s="37"/>
     </row>
-    <row r="66" spans="1:12" ht="54.9" customHeight="1" thickBot="1">
+    <row r="66" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="53" t="s">
         <v>33</v>
       </c>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="L66" s="37"/>
     </row>
-    <row r="67" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="67" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>46</v>
       </c>
@@ -3172,7 +3172,7 @@
       <c r="K67" s="43"/>
       <c r="L67" s="36"/>
     </row>
-    <row r="68" spans="1:12" ht="159" customHeight="1" thickBot="1">
+    <row r="68" spans="1:12" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
         <v>47</v>
       </c>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="L68" s="37"/>
     </row>
-    <row r="69" spans="1:12" ht="45.75" customHeight="1" thickBot="1">
+    <row r="69" spans="1:12" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>14</v>
       </c>
@@ -3233,17 +3233,17 @@
       <c r="H69" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="J69" s="74" t="s">
+      <c r="I69" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" s="58" t="s">
         <v>16</v>
       </c>
       <c r="K69" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="35.1" customHeight="1" thickBot="1">
+    <row r="70" spans="1:12" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>35</v>
       </c>
@@ -3281,9 +3281,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K70" s="77"/>
-    </row>
-    <row r="71" spans="1:12" ht="35.1" customHeight="1" thickBot="1">
+      <c r="K70" s="61"/>
+    </row>
+    <row r="71" spans="1:12" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>36</v>
       </c>
@@ -3322,9 +3322,9 @@
         <f>SUMIF(J21:J69,"&lt;&gt;NA",C21:C69)</f>
         <v>0</v>
       </c>
-      <c r="K71" s="76"/>
-    </row>
-    <row r="72" spans="1:12" ht="45" customHeight="1" thickBot="1">
+      <c r="K71" s="60"/>
+    </row>
+    <row r="72" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>1</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E72" s="25" t="e">
-        <f t="shared" ref="E72:K72" si="1">E70/E71</f>
+        <f t="shared" ref="E72:J72" si="1">E70/E71</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F72" s="25" t="e">
@@ -3362,17 +3362,22 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K72" s="75"/>
+      <c r="K72" s="59"/>
     </row>
   </sheetData>
   <sheetProtection formatRows="0"/>
   <mergeCells count="29">
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B16:C16"/>
@@ -3385,17 +3390,12 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Soen287_A3_Tasks_Allocation.xlsx
+++ b/Soen287_A3_Tasks_Allocation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reuvenostrofsky/Desktop/Concordia/Fall 2021/SOEN287/SOEN-287/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/SOEN-287/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0794529E-96D5-464E-AAA0-B600242621EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E52FDA-328A-1243-A6D3-003C58BB6C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="103">
   <si>
     <t>Max</t>
   </si>
@@ -85,13 +85,7 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Student Name #1</t>
-  </si>
-  <si>
     <t>Student Name #2</t>
-  </si>
-  <si>
-    <t>Student ID #1</t>
   </si>
   <si>
     <t>Student ID #2</t>
@@ -148,11 +142,6 @@
   </si>
   <si>
     <t>Host the website online</t>
-  </si>
-  <si>
-    <t>Put the name(s)
-or put "All",  if all
-members were involved.</t>
   </si>
   <si>
     <t>Add to Cart Button</t>
@@ -358,6 +347,12 @@
   <si>
     <t>Only the admin role must be able to access back-store pages. Other users must be redirected to the home page or an error page even if they know the URL of back-store pages and enter it manually.
 (-2 points for each security bug)</t>
+  </si>
+  <si>
+    <t>Reuven Ostrofsky</t>
+  </si>
+  <si>
+    <t>#`1</t>
   </si>
 </sst>
 </file>
@@ -826,29 +821,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -861,20 +847,29 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1390,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="114" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="G65" zoomScale="114" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1410,25 +1405,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
       <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
       <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1444,8 +1439,8 @@
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1539,12 +1534,12 @@
     </row>
     <row r="9" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E9" s="57"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="62"/>
       <c r="L9" s="30"/>
       <c r="M9" s="31"/>
       <c r="N9" s="32"/>
@@ -1556,87 +1551,87 @@
     </row>
     <row r="10" spans="1:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="75"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="74"/>
+      <c r="B10" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="63"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="62"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="69"/>
+        <v>85</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74">
+        <v>40188881</v>
+      </c>
+      <c r="E11" s="75"/>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="71"/>
+      <c r="D12" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="63"/>
+      <c r="E12" s="71"/>
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="63"/>
+        <v>87</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="71"/>
+      <c r="D13" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="71"/>
     </row>
     <row r="14" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="63"/>
+        <v>88</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="71"/>
+      <c r="D14" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="71"/>
     </row>
     <row r="15" spans="1:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="63"/>
+        <v>89</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="71"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
       <c r="O15" s="29"/>
@@ -1647,16 +1642,16 @@
     </row>
     <row r="16" spans="1:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="63"/>
+        <v>90</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="71"/>
+      <c r="D16" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="71"/>
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
       <c r="M16" s="29"/>
@@ -1669,16 +1664,16 @@
     </row>
     <row r="17" spans="1:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="63"/>
+        <v>98</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="71"/>
+      <c r="D17" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="71"/>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="M17" s="29"/>
@@ -1690,50 +1685,50 @@
       <c r="S17" s="29"/>
     </row>
     <row r="18" spans="1:19" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
     </row>
     <row r="19" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
     </row>
     <row r="20" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="H20" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="I20" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>82</v>
-      </c>
       <c r="J20" s="47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K20" s="46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L20" s="49"/>
       <c r="M20" s="29"/>
@@ -1746,10 +1741,10 @@
     </row>
     <row r="21" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
@@ -1776,7 +1771,7 @@
         <v>16</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="35"/>
     </row>
@@ -1785,7 +1780,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="17">
         <v>1</v>
@@ -1812,7 +1807,7 @@
         <v>16</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L22" s="35"/>
     </row>
@@ -1834,10 +1829,10 @@
     </row>
     <row r="24" spans="1:19" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C24" s="53">
         <v>4</v>
@@ -1864,7 +1859,7 @@
         <v>16</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L24" s="37"/>
     </row>
@@ -1886,10 +1881,10 @@
     </row>
     <row r="26" spans="1:19" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C26" s="53">
         <v>2</v>
@@ -1916,7 +1911,7 @@
         <v>16</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L26" s="37"/>
     </row>
@@ -1938,10 +1933,10 @@
     </row>
     <row r="28" spans="1:19" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C28" s="12">
         <v>5</v>
@@ -1968,16 +1963,16 @@
         <v>16</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L28" s="37"/>
     </row>
     <row r="29" spans="1:19" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C29" s="53">
         <v>2</v>
@@ -2004,7 +1999,7 @@
         <v>16</v>
       </c>
       <c r="K29" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L29" s="37"/>
     </row>
@@ -2026,10 +2021,10 @@
     </row>
     <row r="31" spans="1:19" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C31" s="12">
         <v>5</v>
@@ -2056,16 +2051,16 @@
         <v>16</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L31" s="37"/>
     </row>
     <row r="32" spans="1:19" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C32" s="12">
         <v>5</v>
@@ -2092,16 +2087,16 @@
         <v>16</v>
       </c>
       <c r="K32" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L32" s="37"/>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C33" s="53">
         <v>2</v>
@@ -2128,7 +2123,7 @@
         <v>16</v>
       </c>
       <c r="K33" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L33" s="37"/>
     </row>
@@ -2150,10 +2145,10 @@
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C35" s="20">
         <v>5</v>
@@ -2180,14 +2175,14 @@
         <v>16</v>
       </c>
       <c r="K35" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L35" s="37"/>
     </row>
     <row r="36" spans="1:12" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
       <c r="B36" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C36" s="12">
         <v>5</v>
@@ -2214,14 +2209,14 @@
         <v>16</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="L36" s="37"/>
     </row>
     <row r="37" spans="1:12" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="54"/>
       <c r="B37" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C37" s="12">
         <v>3</v>
@@ -2248,16 +2243,16 @@
         <v>16</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L37" s="37"/>
     </row>
     <row r="38" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C38" s="53">
         <v>1</v>
@@ -2284,7 +2279,7 @@
         <v>16</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L38" s="37"/>
     </row>
@@ -2306,10 +2301,10 @@
     </row>
     <row r="40" spans="1:12" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C40" s="12">
         <v>5</v>
@@ -2336,16 +2331,16 @@
         <v>16</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L40" s="37"/>
     </row>
     <row r="41" spans="1:12" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -2372,16 +2367,16 @@
         <v>16</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L41" s="37"/>
     </row>
     <row r="42" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C42" s="53">
         <v>1</v>
@@ -2408,7 +2403,7 @@
         <v>16</v>
       </c>
       <c r="K42" s="28" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L42" s="37"/>
     </row>
@@ -2430,10 +2425,10 @@
     </row>
     <row r="44" spans="1:12" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -2460,16 +2455,16 @@
         <v>16</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L44" s="37"/>
     </row>
     <row r="45" spans="1:12" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="C45" s="12">
         <v>5</v>
@@ -2496,16 +2491,16 @@
         <v>16</v>
       </c>
       <c r="K45" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L45" s="37"/>
     </row>
     <row r="46" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C46" s="53">
         <v>2</v>
@@ -2532,7 +2527,7 @@
         <v>16</v>
       </c>
       <c r="K46" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L46" s="37"/>
     </row>
@@ -2554,10 +2549,10 @@
     </row>
     <row r="48" spans="1:12" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="C48" s="12">
         <v>7</v>
@@ -2584,16 +2579,16 @@
         <v>16</v>
       </c>
       <c r="K48" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L48" s="37"/>
     </row>
     <row r="49" spans="1:12" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C49" s="12">
         <v>9</v>
@@ -2620,16 +2615,16 @@
         <v>16</v>
       </c>
       <c r="K49" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L49" s="37"/>
     </row>
     <row r="50" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C50" s="53">
         <v>2</v>
@@ -2656,7 +2651,7 @@
         <v>16</v>
       </c>
       <c r="K50" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L50" s="37"/>
     </row>
@@ -2678,10 +2673,10 @@
     </row>
     <row r="52" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
@@ -2708,16 +2703,16 @@
         <v>16</v>
       </c>
       <c r="K52" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L52" s="37"/>
     </row>
     <row r="53" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C53" s="12">
         <v>5</v>
@@ -2744,16 +2739,16 @@
         <v>16</v>
       </c>
       <c r="K53" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L53" s="37"/>
     </row>
     <row r="54" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C54" s="53">
         <v>2</v>
@@ -2780,7 +2775,7 @@
         <v>16</v>
       </c>
       <c r="K54" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L54" s="37"/>
     </row>
@@ -2802,10 +2797,10 @@
     </row>
     <row r="56" spans="1:12" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C56" s="12">
         <v>5</v>
@@ -2832,16 +2827,16 @@
         <v>16</v>
       </c>
       <c r="K56" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L56" s="37"/>
     </row>
     <row r="57" spans="1:12" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C57" s="12">
         <v>6</v>
@@ -2868,16 +2863,16 @@
         <v>16</v>
       </c>
       <c r="K57" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L57" s="37"/>
     </row>
     <row r="58" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C58" s="53">
         <v>2</v>
@@ -2904,7 +2899,7 @@
         <v>16</v>
       </c>
       <c r="K58" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L58" s="37"/>
     </row>
@@ -2926,10 +2921,10 @@
     </row>
     <row r="60" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C60" s="12">
         <v>1</v>
@@ -2956,16 +2951,16 @@
         <v>16</v>
       </c>
       <c r="K60" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L60" s="37"/>
     </row>
     <row r="61" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C61" s="12">
         <v>5</v>
@@ -2992,16 +2987,16 @@
         <v>16</v>
       </c>
       <c r="K61" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L61" s="37"/>
     </row>
     <row r="62" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C62" s="53">
         <v>2</v>
@@ -3028,7 +3023,7 @@
         <v>16</v>
       </c>
       <c r="K62" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L62" s="37"/>
     </row>
@@ -3050,10 +3045,10 @@
     </row>
     <row r="64" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C64" s="12">
         <v>6</v>
@@ -3080,16 +3075,16 @@
         <v>16</v>
       </c>
       <c r="K64" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L64" s="37"/>
     </row>
     <row r="65" spans="1:12" ht="147.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="C65" s="12">
         <v>7</v>
@@ -3116,16 +3111,16 @@
         <v>16</v>
       </c>
       <c r="K65" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L65" s="37"/>
     </row>
     <row r="66" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C66" s="53">
         <v>2</v>
@@ -3152,13 +3147,13 @@
         <v>16</v>
       </c>
       <c r="K66" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L66" s="37"/>
     </row>
     <row r="67" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3174,10 +3169,10 @@
     </row>
     <row r="68" spans="1:12" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C68" s="53">
         <v>7</v>
@@ -3204,7 +3199,7 @@
         <v>16</v>
       </c>
       <c r="K68" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L68" s="37"/>
     </row>
@@ -3213,7 +3208,7 @@
         <v>14</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C69" s="16">
         <v>5</v>
@@ -3240,12 +3235,12 @@
         <v>16</v>
       </c>
       <c r="K69" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B70" s="21" t="s">
         <v>16</v>
@@ -3285,7 +3280,7 @@
     </row>
     <row r="71" spans="1:12" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B71" s="21" t="s">
         <v>16</v>
@@ -3367,17 +3362,12 @@
   </sheetData>
   <sheetProtection formatRows="0"/>
   <mergeCells count="29">
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B16:C16"/>
@@ -3390,12 +3380,17 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Soen287_A3_Tasks_Allocation.xlsx
+++ b/Soen287_A3_Tasks_Allocation.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/SOEN-287/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/20be891dd5af7a77/Desktop/Concordia/SoftWare Engineering S3 (Fall 2021)/SOEN 287/SOEN-287/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E52FDA-328A-1243-A6D3-003C58BB6C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{00E52FDA-328A-1243-A6D3-003C58BB6C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57012888-9848-4093-A936-5A73CAF9FE4E}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="101">
   <si>
     <t>Max</t>
   </si>
@@ -85,15 +85,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Student Name #2</t>
-  </si>
-  <si>
-    <t>Student ID #2</t>
-  </si>
-  <si>
-    <t>Student ID #3</t>
-  </si>
-  <si>
     <t>Student ID #4</t>
   </si>
   <si>
@@ -101,9 +92,6 @@
   </si>
   <si>
     <t>Student ID #6</t>
-  </si>
-  <si>
-    <t>Student Name #3</t>
   </si>
   <si>
     <t>Student Name #4</t>
@@ -352,14 +340,20 @@
     <t>Reuven Ostrofsky</t>
   </si>
   <si>
-    <t>#`1</t>
+    <t>Adir Ben-David</t>
+  </si>
+  <si>
+    <t>Jonathan Abitbol</t>
+  </si>
+  <si>
+    <t>#1 #2 #3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,20 +815,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -847,29 +850,20 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1385,48 +1379,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G65" zoomScale="114" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="45.5" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="24" style="2" customWidth="1"/>
-    <col min="8" max="9" width="23.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.83203125" customWidth="1"/>
-    <col min="11" max="11" width="47.5" customWidth="1"/>
-    <col min="12" max="12" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.77734375" customWidth="1"/>
+    <col min="11" max="11" width="47.44140625" customWidth="1"/>
+    <col min="12" max="12" width="33.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+    <row r="1" spans="1:19" ht="30" customHeight="1">
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
       <c r="I1" s="55"/>
     </row>
-    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
+    <row r="2" spans="1:19" ht="30" customHeight="1">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="55"/>
     </row>
-    <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="30" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1437,10 +1431,10 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="30" customHeight="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1456,7 +1450,7 @@
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
     </row>
-    <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="30" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -1475,7 +1469,7 @@
       <c r="R5" s="29"/>
       <c r="S5" s="29"/>
     </row>
-    <row r="6" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="30" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -1494,7 +1488,7 @@
       <c r="R6" s="29"/>
       <c r="S6" s="29"/>
     </row>
-    <row r="7" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="30" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -1513,7 +1507,7 @@
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
     </row>
-    <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="30" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -1532,14 +1526,14 @@
       <c r="R8" s="32"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="27" customHeight="1" thickBot="1">
       <c r="E9" s="57"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="62"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
       <c r="L9" s="30"/>
       <c r="M9" s="31"/>
       <c r="N9" s="32"/>
@@ -1549,89 +1543,89 @@
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
     </row>
-    <row r="10" spans="1:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="33" customHeight="1" thickBot="1">
       <c r="A10" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="76"/>
+      <c r="D10" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="75"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="74"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" customHeight="1" thickBot="1">
+      <c r="A11" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68">
+        <v>40188881</v>
+      </c>
+      <c r="E11" s="69"/>
+    </row>
+    <row r="12" spans="1:19" ht="30" customHeight="1" thickBot="1">
+      <c r="A12" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="62">
+        <v>40190551</v>
+      </c>
+      <c r="E12" s="63"/>
+    </row>
+    <row r="13" spans="1:19" ht="30" customHeight="1" thickBot="1">
+      <c r="A13" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="62">
+        <v>40190550</v>
+      </c>
+      <c r="E13" s="63"/>
+    </row>
+    <row r="14" spans="1:19" ht="30" customHeight="1" thickBot="1">
+      <c r="A14" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="62"/>
-    </row>
-    <row r="11" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="B14" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="63"/>
+    </row>
+    <row r="15" spans="1:19" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A15" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74">
-        <v>40188881</v>
-      </c>
-      <c r="E11" s="75"/>
-    </row>
-    <row r="12" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="70" t="s">
+      <c r="B15" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="71"/>
-    </row>
-    <row r="13" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="71"/>
-    </row>
-    <row r="14" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="71"/>
-    </row>
-    <row r="15" spans="1:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="71"/>
+      <c r="E15" s="63"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
       <c r="O15" s="29"/>
@@ -1640,18 +1634,18 @@
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
     </row>
-    <row r="16" spans="1:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
       <c r="A16" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="71"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="63"/>
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
       <c r="M16" s="29"/>
@@ -1662,18 +1656,18 @@
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
     </row>
-    <row r="17" spans="1:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
       <c r="A17" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="71"/>
+        <v>94</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="63"/>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="M17" s="29"/>
@@ -1684,51 +1678,51 @@
       <c r="R17" s="29"/>
       <c r="S17" s="29"/>
     </row>
-    <row r="18" spans="1:19" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-    </row>
-    <row r="19" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-    </row>
-    <row r="20" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="28.8" customHeight="1">
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" thickBot="1">
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+    </row>
+    <row r="20" spans="1:19" ht="45" customHeight="1" thickBot="1">
       <c r="A20" s="48" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="I20" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>79</v>
-      </c>
       <c r="J20" s="47" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K20" s="46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L20" s="49"/>
       <c r="M20" s="29"/>
@@ -1739,12 +1733,12 @@
       <c r="R20" s="29"/>
       <c r="S20" s="29"/>
     </row>
-    <row r="21" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="51.75" customHeight="1" thickBot="1">
       <c r="A21" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
@@ -1771,16 +1765,16 @@
         <v>16</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L21" s="35"/>
     </row>
-    <row r="22" spans="1:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="47.25" customHeight="1" thickBot="1">
       <c r="A22" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C22" s="17">
         <v>1</v>
@@ -1807,11 +1801,11 @@
         <v>16</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L22" s="35"/>
     </row>
-    <row r="23" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="18" customHeight="1" thickBot="1">
       <c r="A23" s="11" t="s">
         <v>2</v>
       </c>
@@ -1827,12 +1821,12 @@
       <c r="K23" s="43"/>
       <c r="L23" s="36"/>
     </row>
-    <row r="24" spans="1:19" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="55.05" customHeight="1" thickBot="1">
       <c r="A24" s="53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24" s="53">
         <v>4</v>
@@ -1859,11 +1853,11 @@
         <v>16</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="18" customHeight="1" thickBot="1">
       <c r="A25" s="11" t="s">
         <v>3</v>
       </c>
@@ -1879,12 +1873,12 @@
       <c r="K25" s="43"/>
       <c r="L25" s="36"/>
     </row>
-    <row r="26" spans="1:19" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="1" customFormat="1" ht="55.05" customHeight="1" thickBot="1">
       <c r="A26" s="53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C26" s="53">
         <v>2</v>
@@ -1911,11 +1905,11 @@
         <v>16</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="18" customHeight="1" thickBot="1">
       <c r="A27" s="11" t="s">
         <v>4</v>
       </c>
@@ -1931,12 +1925,12 @@
       <c r="K27" s="43"/>
       <c r="L27" s="36"/>
     </row>
-    <row r="28" spans="1:19" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="54.75" customHeight="1" thickBot="1">
       <c r="A28" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C28" s="12">
         <v>5</v>
@@ -1963,16 +1957,16 @@
         <v>16</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="1:19" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="55.05" customHeight="1" thickBot="1">
       <c r="A29" s="53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C29" s="53">
         <v>2</v>
@@ -1999,11 +1993,11 @@
         <v>16</v>
       </c>
       <c r="K29" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="18" customHeight="1" thickBot="1">
       <c r="A30" s="11" t="s">
         <v>5</v>
       </c>
@@ -2019,12 +2013,12 @@
       <c r="K30" s="43"/>
       <c r="L30" s="36"/>
     </row>
-    <row r="31" spans="1:19" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="124.5" customHeight="1" thickBot="1">
       <c r="A31" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C31" s="12">
         <v>5</v>
@@ -2051,16 +2045,16 @@
         <v>16</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L31" s="37"/>
     </row>
-    <row r="32" spans="1:19" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="78" customHeight="1" thickBot="1">
       <c r="A32" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C32" s="12">
         <v>5</v>
@@ -2087,16 +2081,16 @@
         <v>16</v>
       </c>
       <c r="K32" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L32" s="37"/>
     </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="1" customFormat="1" ht="55.05" customHeight="1" thickBot="1">
       <c r="A33" s="53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C33" s="53">
         <v>2</v>
@@ -2123,11 +2117,11 @@
         <v>16</v>
       </c>
       <c r="K33" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L33" s="37"/>
     </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A34" s="11" t="s">
         <v>6</v>
       </c>
@@ -2143,12 +2137,12 @@
       <c r="K34" s="43"/>
       <c r="L34" s="36"/>
     </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="1" customFormat="1" ht="55.05" customHeight="1" thickBot="1">
       <c r="A35" s="52" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C35" s="20">
         <v>5</v>
@@ -2175,14 +2169,14 @@
         <v>16</v>
       </c>
       <c r="K35" s="28" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L35" s="37"/>
     </row>
-    <row r="36" spans="1:12" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="72.75" customHeight="1" thickBot="1">
       <c r="A36" s="53"/>
       <c r="B36" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C36" s="12">
         <v>5</v>
@@ -2209,14 +2203,14 @@
         <v>16</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L36" s="37"/>
     </row>
-    <row r="37" spans="1:12" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="111" customHeight="1" thickBot="1">
       <c r="A37" s="54"/>
       <c r="B37" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C37" s="12">
         <v>3</v>
@@ -2243,16 +2237,16 @@
         <v>16</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L37" s="37"/>
     </row>
-    <row r="38" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
       <c r="A38" s="53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C38" s="53">
         <v>1</v>
@@ -2279,11 +2273,11 @@
         <v>16</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L38" s="37"/>
     </row>
-    <row r="39" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A39" s="11" t="s">
         <v>7</v>
       </c>
@@ -2299,12 +2293,12 @@
       <c r="K39" s="43"/>
       <c r="L39" s="36"/>
     </row>
-    <row r="40" spans="1:12" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="61.5" customHeight="1" thickBot="1">
       <c r="A40" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C40" s="12">
         <v>5</v>
@@ -2331,16 +2325,16 @@
         <v>16</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L40" s="37"/>
     </row>
-    <row r="41" spans="1:12" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="93" customHeight="1" thickBot="1">
       <c r="A41" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -2367,16 +2361,16 @@
         <v>16</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L41" s="37"/>
     </row>
-    <row r="42" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
       <c r="A42" s="53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C42" s="53">
         <v>1</v>
@@ -2403,11 +2397,11 @@
         <v>16</v>
       </c>
       <c r="K42" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L42" s="37"/>
     </row>
-    <row r="43" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A43" s="11" t="s">
         <v>8</v>
       </c>
@@ -2423,12 +2417,12 @@
       <c r="K43" s="43"/>
       <c r="L43" s="36"/>
     </row>
-    <row r="44" spans="1:12" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="124.5" customHeight="1" thickBot="1">
       <c r="A44" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -2455,16 +2449,16 @@
         <v>16</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L44" s="37"/>
     </row>
-    <row r="45" spans="1:12" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="63" customHeight="1" thickBot="1">
       <c r="A45" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C45" s="12">
         <v>5</v>
@@ -2491,16 +2485,16 @@
         <v>16</v>
       </c>
       <c r="K45" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L45" s="37"/>
     </row>
-    <row r="46" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
       <c r="A46" s="53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C46" s="53">
         <v>2</v>
@@ -2527,11 +2521,11 @@
         <v>16</v>
       </c>
       <c r="K46" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L46" s="37"/>
     </row>
-    <row r="47" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A47" s="11" t="s">
         <v>9</v>
       </c>
@@ -2547,12 +2541,12 @@
       <c r="K47" s="43"/>
       <c r="L47" s="36"/>
     </row>
-    <row r="48" spans="1:12" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="78" customHeight="1" thickBot="1">
       <c r="A48" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C48" s="12">
         <v>7</v>
@@ -2579,16 +2573,16 @@
         <v>16</v>
       </c>
       <c r="K48" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L48" s="37"/>
     </row>
-    <row r="49" spans="1:12" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="137.25" customHeight="1" thickBot="1">
       <c r="A49" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C49" s="12">
         <v>9</v>
@@ -2615,16 +2609,16 @@
         <v>16</v>
       </c>
       <c r="K49" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L49" s="37"/>
     </row>
-    <row r="50" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
       <c r="A50" s="53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C50" s="53">
         <v>2</v>
@@ -2651,11 +2645,11 @@
         <v>16</v>
       </c>
       <c r="K50" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L50" s="37"/>
     </row>
-    <row r="51" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A51" s="11" t="s">
         <v>10</v>
       </c>
@@ -2671,12 +2665,12 @@
       <c r="K51" s="43"/>
       <c r="L51" s="36"/>
     </row>
-    <row r="52" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
       <c r="A52" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
@@ -2703,16 +2697,16 @@
         <v>16</v>
       </c>
       <c r="K52" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L52" s="37"/>
     </row>
-    <row r="53" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
       <c r="A53" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C53" s="12">
         <v>5</v>
@@ -2739,16 +2733,16 @@
         <v>16</v>
       </c>
       <c r="K53" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L53" s="37"/>
     </row>
-    <row r="54" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
       <c r="A54" s="53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C54" s="53">
         <v>2</v>
@@ -2775,11 +2769,11 @@
         <v>16</v>
       </c>
       <c r="K54" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L54" s="37"/>
     </row>
-    <row r="55" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A55" s="11" t="s">
         <v>11</v>
       </c>
@@ -2795,12 +2789,12 @@
       <c r="K55" s="43"/>
       <c r="L55" s="36"/>
     </row>
-    <row r="56" spans="1:12" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="96" customHeight="1" thickBot="1">
       <c r="A56" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C56" s="12">
         <v>5</v>
@@ -2827,16 +2821,16 @@
         <v>16</v>
       </c>
       <c r="K56" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L56" s="37"/>
     </row>
-    <row r="57" spans="1:12" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="154.5" customHeight="1" thickBot="1">
       <c r="A57" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C57" s="12">
         <v>6</v>
@@ -2863,16 +2857,16 @@
         <v>16</v>
       </c>
       <c r="K57" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L57" s="37"/>
     </row>
-    <row r="58" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
       <c r="A58" s="53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C58" s="53">
         <v>2</v>
@@ -2899,11 +2893,11 @@
         <v>16</v>
       </c>
       <c r="K58" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L58" s="37"/>
     </row>
-    <row r="59" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="16.2" thickBot="1">
       <c r="A59" s="11" t="s">
         <v>12</v>
       </c>
@@ -2919,12 +2913,12 @@
       <c r="K59" s="43"/>
       <c r="L59" s="36"/>
     </row>
-    <row r="60" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
       <c r="A60" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C60" s="12">
         <v>1</v>
@@ -2951,16 +2945,16 @@
         <v>16</v>
       </c>
       <c r="K60" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L60" s="37"/>
     </row>
-    <row r="61" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
       <c r="A61" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C61" s="12">
         <v>5</v>
@@ -2987,16 +2981,16 @@
         <v>16</v>
       </c>
       <c r="K61" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L61" s="37"/>
     </row>
-    <row r="62" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
       <c r="A62" s="53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C62" s="53">
         <v>2</v>
@@ -3023,11 +3017,11 @@
         <v>16</v>
       </c>
       <c r="K62" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L62" s="37"/>
     </row>
-    <row r="63" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A63" s="11" t="s">
         <v>13</v>
       </c>
@@ -3043,12 +3037,12 @@
       <c r="K63" s="43"/>
       <c r="L63" s="36"/>
     </row>
-    <row r="64" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="63.75" customHeight="1" thickBot="1">
       <c r="A64" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C64" s="12">
         <v>6</v>
@@ -3075,16 +3069,16 @@
         <v>16</v>
       </c>
       <c r="K64" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L64" s="37"/>
     </row>
-    <row r="65" spans="1:12" ht="147.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="147.75" customHeight="1" thickBot="1">
       <c r="A65" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C65" s="12">
         <v>7</v>
@@ -3111,16 +3105,16 @@
         <v>16</v>
       </c>
       <c r="K65" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L65" s="37"/>
     </row>
-    <row r="66" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
       <c r="A66" s="53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C66" s="53">
         <v>2</v>
@@ -3147,13 +3141,13 @@
         <v>16</v>
       </c>
       <c r="K66" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L66" s="37"/>
     </row>
-    <row r="67" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A67" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3167,12 +3161,12 @@
       <c r="K67" s="43"/>
       <c r="L67" s="36"/>
     </row>
-    <row r="68" spans="1:12" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="159" customHeight="1" thickBot="1">
       <c r="A68" s="27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C68" s="53">
         <v>7</v>
@@ -3199,16 +3193,16 @@
         <v>16</v>
       </c>
       <c r="K68" s="28" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L68" s="37"/>
     </row>
-    <row r="69" spans="1:12" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="45.75" customHeight="1" thickBot="1">
       <c r="A69" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C69" s="16">
         <v>5</v>
@@ -3235,12 +3229,12 @@
         <v>16</v>
       </c>
       <c r="K69" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="34.950000000000003" customHeight="1" thickBot="1">
       <c r="A70" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B70" s="21" t="s">
         <v>16</v>
@@ -3278,9 +3272,9 @@
       </c>
       <c r="K70" s="61"/>
     </row>
-    <row r="71" spans="1:12" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="34.950000000000003" customHeight="1" thickBot="1">
       <c r="A71" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B71" s="21" t="s">
         <v>16</v>
@@ -3319,7 +3313,7 @@
       </c>
       <c r="K71" s="60"/>
     </row>
-    <row r="72" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="45" customHeight="1" thickBot="1">
       <c r="A72" s="23" t="s">
         <v>1</v>
       </c>
@@ -3362,12 +3356,17 @@
   </sheetData>
   <sheetProtection formatRows="0"/>
   <mergeCells count="29">
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B16:C16"/>
@@ -3380,17 +3379,12 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Soen287_A3_Tasks_Allocation.xlsx
+++ b/Soen287_A3_Tasks_Allocation.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reuvenostrofsky/Desktop/Concordia/Fall 2021/SOEN287/SOEN-287/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minaawadalla/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0794529E-96D5-464E-AAA0-B600242621EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070CD234-7520-C34B-9F7F-2B5CE52E6CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="97">
   <si>
     <t>Max</t>
   </si>
@@ -83,42 +83,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>Student Name #1</t>
-  </si>
-  <si>
-    <t>Student Name #2</t>
-  </si>
-  <si>
-    <t>Student ID #1</t>
-  </si>
-  <si>
-    <t>Student ID #2</t>
-  </si>
-  <si>
-    <t>Student ID #3</t>
-  </si>
-  <si>
-    <t>Student ID #4</t>
-  </si>
-  <si>
-    <t>Student ID #5</t>
-  </si>
-  <si>
-    <t>Student ID #6</t>
-  </si>
-  <si>
-    <t>Student Name #3</t>
-  </si>
-  <si>
-    <t>Student Name #4</t>
-  </si>
-  <si>
-    <t>Student Name #5</t>
-  </si>
-  <si>
-    <t>Student Name #6</t>
   </si>
   <si>
     <t>Must include the website URL</t>
@@ -344,12 +308,6 @@
     <t>Allow new users to create an account. The new user must be able to sign in.</t>
   </si>
   <si>
-    <t>Student Name #7</t>
-  </si>
-  <si>
-    <t>Student ID #7</t>
-  </si>
-  <si>
     <t>#7</t>
   </si>
   <si>
@@ -358,6 +316,27 @@
   <si>
     <t>Only the admin role must be able to access back-store pages. Other users must be redirected to the home page or an error page even if they know the URL of back-store pages and enter it manually.
 (-2 points for each security bug)</t>
+  </si>
+  <si>
+    <t>Mina Awadalla</t>
+  </si>
+  <si>
+    <t>Adir Ben-David</t>
+  </si>
+  <si>
+    <t>Jonathan Abitbol</t>
+  </si>
+  <si>
+    <t>Reuven Ostrofsky</t>
+  </si>
+  <si>
+    <t>Saad Hanna</t>
+  </si>
+  <si>
+    <t>Marc Kajjo</t>
+  </si>
+  <si>
+    <t>Ishai Cohen</t>
   </si>
 </sst>
 </file>
@@ -1390,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="114" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="F58" zoomScale="86" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1556,14 +1535,14 @@
     </row>
     <row r="10" spans="1:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C10" s="76"/>
       <c r="D10" s="75" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E10" s="75"/>
       <c r="F10" s="77"/>
@@ -1575,66 +1554,66 @@
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C11" s="67"/>
-      <c r="D11" s="68" t="s">
-        <v>19</v>
+      <c r="D11" s="68">
+        <v>40062336</v>
       </c>
       <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="C12" s="63"/>
-      <c r="D12" s="62" t="s">
-        <v>20</v>
+      <c r="D12" s="62">
+        <v>40190551</v>
       </c>
       <c r="E12" s="63"/>
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="C13" s="63"/>
-      <c r="D13" s="62" t="s">
-        <v>21</v>
+      <c r="D13" s="62">
+        <v>40190550</v>
       </c>
       <c r="E13" s="63"/>
     </row>
     <row r="14" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="C14" s="63"/>
-      <c r="D14" s="62" t="s">
-        <v>22</v>
+      <c r="D14" s="62">
+        <v>40188881</v>
       </c>
       <c r="E14" s="63"/>
     </row>
     <row r="15" spans="1:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C15" s="63"/>
-      <c r="D15" s="62" t="s">
-        <v>23</v>
+      <c r="D15" s="62">
+        <v>40113826</v>
       </c>
       <c r="E15" s="63"/>
       <c r="M15" s="29"/>
@@ -1647,14 +1626,14 @@
     </row>
     <row r="16" spans="1:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="C16" s="63"/>
-      <c r="D16" s="62" t="s">
-        <v>24</v>
+      <c r="D16" s="62">
+        <v>40135132</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="57"/>
@@ -1669,14 +1648,14 @@
     </row>
     <row r="17" spans="1:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C17" s="63"/>
-      <c r="D17" s="62" t="s">
-        <v>100</v>
+      <c r="D17" s="62">
+        <v>40188880</v>
       </c>
       <c r="E17" s="63"/>
       <c r="F17" s="57"/>
@@ -1703,37 +1682,37 @@
     </row>
     <row r="20" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G20" s="56" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="I20" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="46" t="s">
         <v>82</v>
-      </c>
-      <c r="J20" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="K20" s="46" t="s">
-        <v>94</v>
       </c>
       <c r="L20" s="49"/>
       <c r="M20" s="29"/>
@@ -1746,10 +1725,10 @@
     </row>
     <row r="21" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
@@ -1776,7 +1755,7 @@
         <v>16</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L21" s="35"/>
     </row>
@@ -1785,7 +1764,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C22" s="17">
         <v>1</v>
@@ -1812,7 +1791,7 @@
         <v>16</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L22" s="35"/>
     </row>
@@ -1834,10 +1813,10 @@
     </row>
     <row r="24" spans="1:19" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C24" s="53">
         <v>4</v>
@@ -1864,7 +1843,7 @@
         <v>16</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L24" s="37"/>
     </row>
@@ -1886,10 +1865,10 @@
     </row>
     <row r="26" spans="1:19" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C26" s="53">
         <v>2</v>
@@ -1916,7 +1895,7 @@
         <v>16</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L26" s="37"/>
     </row>
@@ -1938,10 +1917,10 @@
     </row>
     <row r="28" spans="1:19" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C28" s="12">
         <v>5</v>
@@ -1968,16 +1947,16 @@
         <v>16</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L28" s="37"/>
     </row>
     <row r="29" spans="1:19" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C29" s="53">
         <v>2</v>
@@ -2004,7 +1983,7 @@
         <v>16</v>
       </c>
       <c r="K29" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L29" s="37"/>
     </row>
@@ -2026,10 +2005,10 @@
     </row>
     <row r="31" spans="1:19" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C31" s="12">
         <v>5</v>
@@ -2056,16 +2035,16 @@
         <v>16</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L31" s="37"/>
     </row>
     <row r="32" spans="1:19" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C32" s="12">
         <v>5</v>
@@ -2092,16 +2071,16 @@
         <v>16</v>
       </c>
       <c r="K32" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L32" s="37"/>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C33" s="53">
         <v>2</v>
@@ -2128,7 +2107,7 @@
         <v>16</v>
       </c>
       <c r="K33" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L33" s="37"/>
     </row>
@@ -2150,10 +2129,10 @@
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C35" s="20">
         <v>5</v>
@@ -2180,14 +2159,14 @@
         <v>16</v>
       </c>
       <c r="K35" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L35" s="37"/>
     </row>
     <row r="36" spans="1:12" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
       <c r="B36" s="13" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C36" s="12">
         <v>5</v>
@@ -2214,14 +2193,14 @@
         <v>16</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="L36" s="37"/>
     </row>
     <row r="37" spans="1:12" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="54"/>
       <c r="B37" s="13" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C37" s="12">
         <v>3</v>
@@ -2248,16 +2227,16 @@
         <v>16</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L37" s="37"/>
     </row>
     <row r="38" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C38" s="53">
         <v>1</v>
@@ -2284,7 +2263,7 @@
         <v>16</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L38" s="37"/>
     </row>
@@ -2306,10 +2285,10 @@
     </row>
     <row r="40" spans="1:12" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C40" s="12">
         <v>5</v>
@@ -2336,16 +2315,16 @@
         <v>16</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L40" s="37"/>
     </row>
     <row r="41" spans="1:12" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -2372,16 +2351,16 @@
         <v>16</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L41" s="37"/>
     </row>
     <row r="42" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C42" s="53">
         <v>1</v>
@@ -2408,7 +2387,7 @@
         <v>16</v>
       </c>
       <c r="K42" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L42" s="37"/>
     </row>
@@ -2430,10 +2409,10 @@
     </row>
     <row r="44" spans="1:12" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -2460,16 +2439,16 @@
         <v>16</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L44" s="37"/>
     </row>
     <row r="45" spans="1:12" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C45" s="12">
         <v>5</v>
@@ -2496,16 +2475,16 @@
         <v>16</v>
       </c>
       <c r="K45" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L45" s="37"/>
     </row>
     <row r="46" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C46" s="53">
         <v>2</v>
@@ -2532,7 +2511,7 @@
         <v>16</v>
       </c>
       <c r="K46" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L46" s="37"/>
     </row>
@@ -2554,10 +2533,10 @@
     </row>
     <row r="48" spans="1:12" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C48" s="12">
         <v>7</v>
@@ -2584,16 +2563,16 @@
         <v>16</v>
       </c>
       <c r="K48" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L48" s="37"/>
     </row>
     <row r="49" spans="1:12" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C49" s="12">
         <v>9</v>
@@ -2620,16 +2599,16 @@
         <v>16</v>
       </c>
       <c r="K49" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L49" s="37"/>
     </row>
     <row r="50" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C50" s="53">
         <v>2</v>
@@ -2656,7 +2635,7 @@
         <v>16</v>
       </c>
       <c r="K50" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L50" s="37"/>
     </row>
@@ -2678,10 +2657,10 @@
     </row>
     <row r="52" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
@@ -2708,16 +2687,16 @@
         <v>16</v>
       </c>
       <c r="K52" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L52" s="37"/>
     </row>
     <row r="53" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C53" s="12">
         <v>5</v>
@@ -2744,16 +2723,16 @@
         <v>16</v>
       </c>
       <c r="K53" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L53" s="37"/>
     </row>
     <row r="54" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="53" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C54" s="53">
         <v>2</v>
@@ -2780,7 +2759,7 @@
         <v>16</v>
       </c>
       <c r="K54" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L54" s="37"/>
     </row>
@@ -2802,10 +2781,10 @@
     </row>
     <row r="56" spans="1:12" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C56" s="12">
         <v>5</v>
@@ -2832,16 +2811,16 @@
         <v>16</v>
       </c>
       <c r="K56" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L56" s="37"/>
     </row>
     <row r="57" spans="1:12" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="C57" s="12">
         <v>6</v>
@@ -2868,16 +2847,16 @@
         <v>16</v>
       </c>
       <c r="K57" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L57" s="37"/>
     </row>
     <row r="58" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="53" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C58" s="53">
         <v>2</v>
@@ -2904,7 +2883,7 @@
         <v>16</v>
       </c>
       <c r="K58" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L58" s="37"/>
     </row>
@@ -2926,10 +2905,10 @@
     </row>
     <row r="60" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C60" s="12">
         <v>1</v>
@@ -2956,16 +2935,16 @@
         <v>16</v>
       </c>
       <c r="K60" s="28" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="L60" s="37"/>
     </row>
     <row r="61" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C61" s="12">
         <v>5</v>
@@ -2992,16 +2971,16 @@
         <v>16</v>
       </c>
       <c r="K61" s="28" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="L61" s="37"/>
     </row>
     <row r="62" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="53" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C62" s="53">
         <v>2</v>
@@ -3028,7 +3007,7 @@
         <v>16</v>
       </c>
       <c r="K62" s="28" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="L62" s="37"/>
     </row>
@@ -3050,10 +3029,10 @@
     </row>
     <row r="64" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C64" s="12">
         <v>6</v>
@@ -3080,16 +3059,16 @@
         <v>16</v>
       </c>
       <c r="K64" s="28" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="L64" s="37"/>
     </row>
     <row r="65" spans="1:12" ht="147.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C65" s="12">
         <v>7</v>
@@ -3116,16 +3095,16 @@
         <v>16</v>
       </c>
       <c r="K65" s="28" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="L65" s="37"/>
     </row>
     <row r="66" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="53" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C66" s="53">
         <v>2</v>
@@ -3152,13 +3131,13 @@
         <v>16</v>
       </c>
       <c r="K66" s="28" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="L66" s="37"/>
     </row>
     <row r="67" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3174,10 +3153,10 @@
     </row>
     <row r="68" spans="1:12" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C68" s="53">
         <v>7</v>
@@ -3204,7 +3183,7 @@
         <v>16</v>
       </c>
       <c r="K68" s="28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L68" s="37"/>
     </row>
@@ -3213,7 +3192,7 @@
         <v>14</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C69" s="16">
         <v>5</v>
@@ -3240,12 +3219,12 @@
         <v>16</v>
       </c>
       <c r="K69" s="16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B70" s="21" t="s">
         <v>16</v>
@@ -3285,7 +3264,7 @@
     </row>
     <row r="71" spans="1:12" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B71" s="21" t="s">
         <v>16</v>

--- a/Soen287_A3_Tasks_Allocation.xlsx
+++ b/Soen287_A3_Tasks_Allocation.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/20be891dd5af7a77/Desktop/Concordia/SoftWare Engineering S3 (Fall 2021)/SOEN 287/SOEN-287/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minaawadalla/Desktop/Concordia/SOEN 287 - Pope Shenouda /Assignment/Team-SOEN 287/SOEN-287/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{00E52FDA-328A-1243-A6D3-003C58BB6C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57012888-9848-4093-A936-5A73CAF9FE4E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9161CED0-DF14-464F-90BA-DF6191F1511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="100">
   <si>
     <t>Max</t>
   </si>
@@ -85,16 +85,10 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Student ID #4</t>
-  </si>
-  <si>
     <t>Student ID #5</t>
   </si>
   <si>
     <t>Student ID #6</t>
-  </si>
-  <si>
-    <t>Student Name #4</t>
   </si>
   <si>
     <t>Student Name #5</t>
@@ -347,13 +341,16 @@
   </si>
   <si>
     <t>#1 #2 #3</t>
+  </si>
+  <si>
+    <t>Mina Awadalla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -815,29 +812,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -850,20 +838,29 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1379,48 +1376,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="58" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" customWidth="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1"/>
+    <col min="1" max="1" width="45.5" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="24" style="2" customWidth="1"/>
-    <col min="8" max="9" width="23.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.77734375" customWidth="1"/>
-    <col min="11" max="11" width="47.44140625" customWidth="1"/>
-    <col min="12" max="12" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" customWidth="1"/>
+    <col min="11" max="11" width="47.5" customWidth="1"/>
+    <col min="12" max="12" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" customHeight="1">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
       <c r="I1" s="55"/>
     </row>
-    <row r="2" spans="1:19" ht="30" customHeight="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
       <c r="I2" s="55"/>
     </row>
-    <row r="3" spans="1:19" ht="30" customHeight="1">
+    <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1431,10 +1428,10 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:19" ht="30" customHeight="1">
+    <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1450,7 +1447,7 @@
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
     </row>
-    <row r="5" spans="1:19" ht="30" customHeight="1">
+    <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -1469,7 +1466,7 @@
       <c r="R5" s="29"/>
       <c r="S5" s="29"/>
     </row>
-    <row r="6" spans="1:19" ht="30" customHeight="1">
+    <row r="6" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -1488,7 +1485,7 @@
       <c r="R6" s="29"/>
       <c r="S6" s="29"/>
     </row>
-    <row r="7" spans="1:19" ht="30" customHeight="1">
+    <row r="7" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -1507,7 +1504,7 @@
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
     </row>
-    <row r="8" spans="1:19" ht="30" customHeight="1">
+    <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -1526,14 +1523,14 @@
       <c r="R8" s="32"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="27" customHeight="1" thickBot="1">
+    <row r="9" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E9" s="57"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="62"/>
       <c r="L9" s="30"/>
       <c r="M9" s="31"/>
       <c r="N9" s="32"/>
@@ -1543,89 +1540,89 @@
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
     </row>
-    <row r="10" spans="1:19" ht="33" customHeight="1" thickBot="1">
+    <row r="10" spans="1:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="63"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="62"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74">
+        <v>40188881</v>
+      </c>
+      <c r="E11" s="75"/>
+    </row>
+    <row r="12" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="75"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="74"/>
-    </row>
-    <row r="11" spans="1:19" ht="30" customHeight="1" thickBot="1">
-      <c r="A11" s="34" t="s">
+      <c r="B12" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="71"/>
+      <c r="D12" s="70">
+        <v>40190551</v>
+      </c>
+      <c r="E12" s="71"/>
+    </row>
+    <row r="13" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B13" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68">
-        <v>40188881</v>
-      </c>
-      <c r="E11" s="69"/>
-    </row>
-    <row r="12" spans="1:19" ht="30" customHeight="1" thickBot="1">
-      <c r="A12" s="20" t="s">
+      <c r="C13" s="71"/>
+      <c r="D13" s="70">
+        <v>40190550</v>
+      </c>
+      <c r="E13" s="71"/>
+    </row>
+    <row r="14" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="62">
-        <v>40190551</v>
-      </c>
-      <c r="E12" s="63"/>
-    </row>
-    <row r="13" spans="1:19" ht="30" customHeight="1" thickBot="1">
-      <c r="A13" s="20" t="s">
+      <c r="B14" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="71"/>
+      <c r="D14" s="70">
+        <v>40062336</v>
+      </c>
+      <c r="E14" s="71"/>
+    </row>
+    <row r="15" spans="1:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="62">
-        <v>40190550</v>
-      </c>
-      <c r="E13" s="63"/>
-    </row>
-    <row r="14" spans="1:19" ht="30" customHeight="1" thickBot="1">
-      <c r="A14" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="62" t="s">
+      <c r="B15" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="63"/>
-    </row>
-    <row r="15" spans="1:19" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A15" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="63"/>
+      <c r="E15" s="71"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
       <c r="O15" s="29"/>
@@ -1634,18 +1631,18 @@
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
     </row>
-    <row r="16" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="63"/>
+        <v>84</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="71"/>
+      <c r="D16" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="71"/>
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
       <c r="M16" s="29"/>
@@ -1656,18 +1653,18 @@
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
     </row>
-    <row r="17" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="63"/>
+      <c r="B17" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="71"/>
+      <c r="D17" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="71"/>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="M17" s="29"/>
@@ -1678,51 +1675,51 @@
       <c r="R17" s="29"/>
       <c r="S17" s="29"/>
     </row>
-    <row r="18" spans="1:19" ht="28.8" customHeight="1">
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-    </row>
-    <row r="19" spans="1:19" ht="15" thickBot="1">
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-    </row>
-    <row r="20" spans="1:19" ht="45" customHeight="1" thickBot="1">
+    <row r="18" spans="1:19" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+    </row>
+    <row r="19" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+    </row>
+    <row r="20" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="G20" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="H20" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="I20" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>75</v>
-      </c>
       <c r="J20" s="47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K20" s="46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L20" s="49"/>
       <c r="M20" s="29"/>
@@ -1733,12 +1730,12 @@
       <c r="R20" s="29"/>
       <c r="S20" s="29"/>
     </row>
-    <row r="21" spans="1:19" ht="51.75" customHeight="1" thickBot="1">
+    <row r="21" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
@@ -1765,16 +1762,16 @@
         <v>16</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L21" s="35"/>
     </row>
-    <row r="22" spans="1:19" ht="47.25" customHeight="1" thickBot="1">
+    <row r="22" spans="1:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="17">
         <v>1</v>
@@ -1801,11 +1798,11 @@
         <v>16</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L22" s="35"/>
     </row>
-    <row r="23" spans="1:19" ht="18" customHeight="1" thickBot="1">
+    <row r="23" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>2</v>
       </c>
@@ -1821,12 +1818,12 @@
       <c r="K23" s="43"/>
       <c r="L23" s="36"/>
     </row>
-    <row r="24" spans="1:19" ht="55.05" customHeight="1" thickBot="1">
+    <row r="24" spans="1:19" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="53">
         <v>4</v>
@@ -1853,11 +1850,11 @@
         <v>16</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="1:19" ht="18" customHeight="1" thickBot="1">
+    <row r="25" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>3</v>
       </c>
@@ -1873,12 +1870,12 @@
       <c r="K25" s="43"/>
       <c r="L25" s="36"/>
     </row>
-    <row r="26" spans="1:19" s="1" customFormat="1" ht="55.05" customHeight="1" thickBot="1">
+    <row r="26" spans="1:19" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="53">
         <v>2</v>
@@ -1905,11 +1902,11 @@
         <v>16</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="1:19" ht="18" customHeight="1" thickBot="1">
+    <row r="27" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>4</v>
       </c>
@@ -1925,12 +1922,12 @@
       <c r="K27" s="43"/>
       <c r="L27" s="36"/>
     </row>
-    <row r="28" spans="1:19" ht="54.75" customHeight="1" thickBot="1">
+    <row r="28" spans="1:19" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" s="12">
         <v>5</v>
@@ -1957,16 +1954,16 @@
         <v>16</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="1:19" ht="55.05" customHeight="1" thickBot="1">
+    <row r="29" spans="1:19" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="53">
         <v>2</v>
@@ -1993,11 +1990,11 @@
         <v>16</v>
       </c>
       <c r="K29" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:19" ht="18" customHeight="1" thickBot="1">
+    <row r="30" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>5</v>
       </c>
@@ -2013,12 +2010,12 @@
       <c r="K30" s="43"/>
       <c r="L30" s="36"/>
     </row>
-    <row r="31" spans="1:19" ht="124.5" customHeight="1" thickBot="1">
+    <row r="31" spans="1:19" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C31" s="12">
         <v>5</v>
@@ -2045,16 +2042,16 @@
         <v>16</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L31" s="37"/>
     </row>
-    <row r="32" spans="1:19" ht="78" customHeight="1" thickBot="1">
+    <row r="32" spans="1:19" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C32" s="12">
         <v>5</v>
@@ -2081,16 +2078,16 @@
         <v>16</v>
       </c>
       <c r="K32" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L32" s="37"/>
     </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" ht="55.05" customHeight="1" thickBot="1">
+    <row r="33" spans="1:12" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" s="53">
         <v>2</v>
@@ -2117,11 +2114,11 @@
         <v>16</v>
       </c>
       <c r="K33" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L33" s="37"/>
     </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1">
+    <row r="34" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>6</v>
       </c>
@@ -2137,12 +2134,12 @@
       <c r="K34" s="43"/>
       <c r="L34" s="36"/>
     </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" ht="55.05" customHeight="1" thickBot="1">
+    <row r="35" spans="1:12" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="20">
         <v>5</v>
@@ -2169,14 +2166,14 @@
         <v>16</v>
       </c>
       <c r="K35" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L35" s="37"/>
     </row>
-    <row r="36" spans="1:12" ht="72.75" customHeight="1" thickBot="1">
+    <row r="36" spans="1:12" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
       <c r="B36" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" s="12">
         <v>5</v>
@@ -2203,14 +2200,14 @@
         <v>16</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L36" s="37"/>
     </row>
-    <row r="37" spans="1:12" ht="111" customHeight="1" thickBot="1">
+    <row r="37" spans="1:12" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="54"/>
       <c r="B37" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" s="12">
         <v>3</v>
@@ -2237,16 +2234,16 @@
         <v>16</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L37" s="37"/>
     </row>
-    <row r="38" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
+    <row r="38" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" s="53">
         <v>1</v>
@@ -2273,11 +2270,11 @@
         <v>16</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L38" s="37"/>
     </row>
-    <row r="39" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="39" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>7</v>
       </c>
@@ -2293,12 +2290,12 @@
       <c r="K39" s="43"/>
       <c r="L39" s="36"/>
     </row>
-    <row r="40" spans="1:12" ht="61.5" customHeight="1" thickBot="1">
+    <row r="40" spans="1:12" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" s="12">
         <v>5</v>
@@ -2325,16 +2322,16 @@
         <v>16</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L40" s="37"/>
     </row>
-    <row r="41" spans="1:12" ht="93" customHeight="1" thickBot="1">
+    <row r="41" spans="1:12" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -2361,16 +2358,16 @@
         <v>16</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L41" s="37"/>
     </row>
-    <row r="42" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
+    <row r="42" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42" s="53">
         <v>1</v>
@@ -2397,11 +2394,11 @@
         <v>16</v>
       </c>
       <c r="K42" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L42" s="37"/>
     </row>
-    <row r="43" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="43" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>8</v>
       </c>
@@ -2417,12 +2414,12 @@
       <c r="K43" s="43"/>
       <c r="L43" s="36"/>
     </row>
-    <row r="44" spans="1:12" ht="124.5" customHeight="1" thickBot="1">
+    <row r="44" spans="1:12" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -2449,16 +2446,16 @@
         <v>16</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L44" s="37"/>
     </row>
-    <row r="45" spans="1:12" ht="63" customHeight="1" thickBot="1">
+    <row r="45" spans="1:12" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C45" s="12">
         <v>5</v>
@@ -2485,16 +2482,16 @@
         <v>16</v>
       </c>
       <c r="K45" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L45" s="37"/>
     </row>
-    <row r="46" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
+    <row r="46" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" s="53">
         <v>2</v>
@@ -2521,11 +2518,11 @@
         <v>16</v>
       </c>
       <c r="K46" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L46" s="37"/>
     </row>
-    <row r="47" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="47" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>9</v>
       </c>
@@ -2541,12 +2538,12 @@
       <c r="K47" s="43"/>
       <c r="L47" s="36"/>
     </row>
-    <row r="48" spans="1:12" ht="78" customHeight="1" thickBot="1">
+    <row r="48" spans="1:12" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="12">
         <v>7</v>
@@ -2573,16 +2570,16 @@
         <v>16</v>
       </c>
       <c r="K48" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L48" s="37"/>
     </row>
-    <row r="49" spans="1:12" ht="137.25" customHeight="1" thickBot="1">
+    <row r="49" spans="1:12" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="12">
         <v>9</v>
@@ -2609,16 +2606,16 @@
         <v>16</v>
       </c>
       <c r="K49" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L49" s="37"/>
     </row>
-    <row r="50" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
+    <row r="50" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C50" s="53">
         <v>2</v>
@@ -2645,11 +2642,11 @@
         <v>16</v>
       </c>
       <c r="K50" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L50" s="37"/>
     </row>
-    <row r="51" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="51" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>10</v>
       </c>
@@ -2665,12 +2662,12 @@
       <c r="K51" s="43"/>
       <c r="L51" s="36"/>
     </row>
-    <row r="52" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
+    <row r="52" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
@@ -2697,16 +2694,16 @@
         <v>16</v>
       </c>
       <c r="K52" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L52" s="37"/>
     </row>
-    <row r="53" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
+    <row r="53" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53" s="12">
         <v>5</v>
@@ -2733,16 +2730,16 @@
         <v>16</v>
       </c>
       <c r="K53" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L53" s="37"/>
     </row>
-    <row r="54" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
+    <row r="54" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C54" s="53">
         <v>2</v>
@@ -2769,11 +2766,11 @@
         <v>16</v>
       </c>
       <c r="K54" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L54" s="37"/>
     </row>
-    <row r="55" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="55" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>11</v>
       </c>
@@ -2789,12 +2786,12 @@
       <c r="K55" s="43"/>
       <c r="L55" s="36"/>
     </row>
-    <row r="56" spans="1:12" ht="96" customHeight="1" thickBot="1">
+    <row r="56" spans="1:12" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C56" s="12">
         <v>5</v>
@@ -2821,16 +2818,16 @@
         <v>16</v>
       </c>
       <c r="K56" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L56" s="37"/>
     </row>
-    <row r="57" spans="1:12" ht="154.5" customHeight="1" thickBot="1">
+    <row r="57" spans="1:12" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="12">
         <v>6</v>
@@ -2857,16 +2854,16 @@
         <v>16</v>
       </c>
       <c r="K57" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L57" s="37"/>
     </row>
-    <row r="58" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
+    <row r="58" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C58" s="53">
         <v>2</v>
@@ -2893,11 +2890,11 @@
         <v>16</v>
       </c>
       <c r="K58" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L58" s="37"/>
     </row>
-    <row r="59" spans="1:12" ht="16.2" thickBot="1">
+    <row r="59" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>12</v>
       </c>
@@ -2913,12 +2910,12 @@
       <c r="K59" s="43"/>
       <c r="L59" s="36"/>
     </row>
-    <row r="60" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
+    <row r="60" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C60" s="12">
         <v>1</v>
@@ -2945,16 +2942,16 @@
         <v>16</v>
       </c>
       <c r="K60" s="28" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L60" s="37"/>
     </row>
-    <row r="61" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
+    <row r="61" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C61" s="12">
         <v>5</v>
@@ -2981,16 +2978,16 @@
         <v>16</v>
       </c>
       <c r="K61" s="28" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L61" s="37"/>
     </row>
-    <row r="62" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
+    <row r="62" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C62" s="53">
         <v>2</v>
@@ -3017,11 +3014,11 @@
         <v>16</v>
       </c>
       <c r="K62" s="28" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L62" s="37"/>
     </row>
-    <row r="63" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="63" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>13</v>
       </c>
@@ -3037,12 +3034,12 @@
       <c r="K63" s="43"/>
       <c r="L63" s="36"/>
     </row>
-    <row r="64" spans="1:12" ht="63.75" customHeight="1" thickBot="1">
+    <row r="64" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C64" s="12">
         <v>6</v>
@@ -3069,16 +3066,16 @@
         <v>16</v>
       </c>
       <c r="K64" s="28" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L64" s="37"/>
     </row>
-    <row r="65" spans="1:12" ht="147.75" customHeight="1" thickBot="1">
+    <row r="65" spans="1:12" ht="147.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C65" s="12">
         <v>7</v>
@@ -3105,16 +3102,16 @@
         <v>16</v>
       </c>
       <c r="K65" s="28" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L65" s="37"/>
     </row>
-    <row r="66" spans="1:12" ht="55.05" customHeight="1" thickBot="1">
+    <row r="66" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C66" s="53">
         <v>2</v>
@@ -3141,13 +3138,13 @@
         <v>16</v>
       </c>
       <c r="K66" s="28" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L66" s="37"/>
     </row>
-    <row r="67" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="67" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3161,12 +3158,12 @@
       <c r="K67" s="43"/>
       <c r="L67" s="36"/>
     </row>
-    <row r="68" spans="1:12" ht="159" customHeight="1" thickBot="1">
+    <row r="68" spans="1:12" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C68" s="53">
         <v>7</v>
@@ -3193,16 +3190,16 @@
         <v>16</v>
       </c>
       <c r="K68" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L68" s="37"/>
     </row>
-    <row r="69" spans="1:12" ht="45.75" customHeight="1" thickBot="1">
+    <row r="69" spans="1:12" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C69" s="16">
         <v>5</v>
@@ -3229,12 +3226,12 @@
         <v>16</v>
       </c>
       <c r="K69" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="34.950000000000003" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B70" s="21" t="s">
         <v>16</v>
@@ -3272,9 +3269,9 @@
       </c>
       <c r="K70" s="61"/>
     </row>
-    <row r="71" spans="1:12" ht="34.950000000000003" customHeight="1" thickBot="1">
+    <row r="71" spans="1:12" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B71" s="21" t="s">
         <v>16</v>
@@ -3313,7 +3310,7 @@
       </c>
       <c r="K71" s="60"/>
     </row>
-    <row r="72" spans="1:12" ht="45" customHeight="1" thickBot="1">
+    <row r="72" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>1</v>
       </c>
@@ -3356,17 +3353,12 @@
   </sheetData>
   <sheetProtection formatRows="0"/>
   <mergeCells count="29">
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B16:C16"/>
@@ -3379,12 +3371,17 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Soen287_A3_Tasks_Allocation.xlsx
+++ b/Soen287_A3_Tasks_Allocation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minaawadalla/Desktop/Concordia/SOEN 287 - Pope Shenouda /Assignment/Team-SOEN 287/SOEN-287/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishaicohen/Documents/GitHub/SOEN-287/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9161CED0-DF14-464F-90BA-DF6191F1511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D67716-3F66-604B-9D78-4AFB9CB03528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="99">
   <si>
     <t>Max</t>
   </si>
@@ -315,12 +315,6 @@
     <t>Allow new users to create an account. The new user must be able to sign in.</t>
   </si>
   <si>
-    <t>Student Name #7</t>
-  </si>
-  <si>
-    <t>Student ID #7</t>
-  </si>
-  <si>
     <t>#7</t>
   </si>
   <si>
@@ -344,6 +338,9 @@
   </si>
   <si>
     <t>Mina Awadalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ishai Cohen</t>
   </si>
 </sst>
 </file>
@@ -812,20 +809,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -838,29 +844,20 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1376,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="58" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1396,25 +1393,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
       <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1430,8 +1427,8 @@
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1525,12 +1522,12 @@
     </row>
     <row r="9" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E9" s="57"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="62"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
       <c r="L9" s="30"/>
       <c r="M9" s="31"/>
       <c r="N9" s="32"/>
@@ -1544,85 +1541,85 @@
       <c r="A10" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="63" t="s">
+      <c r="C10" s="76"/>
+      <c r="D10" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="62"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="74"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74">
+      <c r="B11" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68">
         <v>40188881</v>
       </c>
-      <c r="E11" s="75"/>
+      <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="70">
+      <c r="B12" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="62">
         <v>40190551</v>
       </c>
-      <c r="E12" s="71"/>
+      <c r="E12" s="63"/>
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="70">
+      <c r="B13" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="62">
         <v>40190550</v>
       </c>
-      <c r="E13" s="71"/>
+      <c r="E13" s="63"/>
     </row>
     <row r="14" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="70">
+      <c r="B14" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="62">
         <v>40062336</v>
       </c>
-      <c r="E14" s="71"/>
+      <c r="E14" s="63"/>
     </row>
     <row r="15" spans="1:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="70" t="s">
+      <c r="C15" s="63"/>
+      <c r="D15" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="71"/>
+      <c r="E15" s="63"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
       <c r="O15" s="29"/>
@@ -1635,14 +1632,14 @@
       <c r="A16" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="70" t="s">
+      <c r="C16" s="63"/>
+      <c r="D16" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="71"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
       <c r="M16" s="29"/>
@@ -1655,16 +1652,16 @@
     </row>
     <row r="17" spans="1:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="71"/>
+      <c r="B17" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="62">
+        <v>40188880</v>
+      </c>
+      <c r="E17" s="63"/>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="M17" s="29"/>
@@ -1676,16 +1673,16 @@
       <c r="S17" s="29"/>
     </row>
     <row r="18" spans="1:19" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
     </row>
     <row r="19" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
     </row>
     <row r="20" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
@@ -1716,7 +1713,7 @@
         <v>73</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K20" s="46" t="s">
         <v>85</v>
@@ -1954,7 +1951,7 @@
         <v>16</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L28" s="37"/>
     </row>
@@ -1990,7 +1987,7 @@
         <v>16</v>
       </c>
       <c r="K29" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L29" s="37"/>
     </row>
@@ -2042,7 +2039,7 @@
         <v>16</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L31" s="37"/>
     </row>
@@ -2078,7 +2075,7 @@
         <v>16</v>
       </c>
       <c r="K32" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L32" s="37"/>
     </row>
@@ -2114,7 +2111,7 @@
         <v>16</v>
       </c>
       <c r="K33" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L33" s="37"/>
     </row>
@@ -2166,7 +2163,7 @@
         <v>16</v>
       </c>
       <c r="K35" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L35" s="37"/>
     </row>
@@ -2200,7 +2197,7 @@
         <v>16</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L36" s="37"/>
     </row>
@@ -2234,7 +2231,7 @@
         <v>16</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L37" s="37"/>
     </row>
@@ -2270,7 +2267,7 @@
         <v>16</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L38" s="37"/>
     </row>
@@ -2322,7 +2319,7 @@
         <v>16</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L40" s="37"/>
     </row>
@@ -2358,7 +2355,7 @@
         <v>16</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L41" s="37"/>
     </row>
@@ -2394,7 +2391,7 @@
         <v>16</v>
       </c>
       <c r="K42" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L42" s="37"/>
     </row>
@@ -3163,7 +3160,7 @@
         <v>38</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C68" s="53">
         <v>7</v>
@@ -3190,7 +3187,7 @@
         <v>16</v>
       </c>
       <c r="K68" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L68" s="37"/>
     </row>
@@ -3353,12 +3350,17 @@
   </sheetData>
   <sheetProtection formatRows="0"/>
   <mergeCells count="29">
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B16:C16"/>
@@ -3371,17 +3373,12 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Soen287_A3_Tasks_Allocation.xlsx
+++ b/Soen287_A3_Tasks_Allocation.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minaawadalla/Desktop/Concordia/SOEN 287 - Pope Shenouda /Assignment/Team-SOEN 287/SOEN-287/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/SOEN-287/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9161CED0-DF14-464F-90BA-DF6191F1511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0732C691-B7E8-9646-981F-735CADC11AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="97">
   <si>
     <t>Max</t>
   </si>
@@ -83,18 +83,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>Student ID #5</t>
-  </si>
-  <si>
-    <t>Student ID #6</t>
-  </si>
-  <si>
-    <t>Student Name #5</t>
-  </si>
-  <si>
-    <t>Student Name #6</t>
   </si>
   <si>
     <t>Must include the website URL</t>
@@ -307,18 +295,7 @@
     <t>Must remove the corresponding item from the cart. Changes must be consistent agaisnt refresh and navigation (2 pts).</t>
   </si>
   <si>
-    <t>Put the member number(s)
-or put "All",  if all
-members were involved.</t>
-  </si>
-  <si>
     <t>Allow new users to create an account. The new user must be able to sign in.</t>
-  </si>
-  <si>
-    <t>Student Name #7</t>
-  </si>
-  <si>
-    <t>Student ID #7</t>
   </si>
   <si>
     <t>#7</t>
@@ -344,6 +321,18 @@
   </si>
   <si>
     <t>Mina Awadalla</t>
+  </si>
+  <si>
+    <t>Ishai Cohen</t>
+  </si>
+  <si>
+    <t>Marc Kaijo</t>
+  </si>
+  <si>
+    <t>Saad Hanna</t>
+  </si>
+  <si>
+    <t>#5,#6</t>
   </si>
 </sst>
 </file>
@@ -812,20 +801,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -838,29 +836,20 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1376,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="58" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1396,25 +1385,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
       <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1430,8 +1419,8 @@
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1525,12 +1514,12 @@
     </row>
     <row r="9" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E9" s="57"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="62"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
       <c r="L9" s="30"/>
       <c r="M9" s="31"/>
       <c r="N9" s="32"/>
@@ -1542,87 +1531,87 @@
     </row>
     <row r="10" spans="1:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="62"/>
+      <c r="B10" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="76"/>
+      <c r="D10" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="75"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="74"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74">
+        <v>75</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68">
         <v>40188881</v>
       </c>
-      <c r="E11" s="75"/>
+      <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="70">
+        <v>76</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="62">
         <v>40190551</v>
       </c>
-      <c r="E12" s="71"/>
+      <c r="E12" s="63"/>
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="70">
+        <v>77</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="62">
         <v>40190550</v>
       </c>
-      <c r="E13" s="71"/>
+      <c r="E13" s="63"/>
     </row>
     <row r="14" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="70">
+        <v>78</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="62">
         <v>40062336</v>
       </c>
-      <c r="E14" s="71"/>
+      <c r="E14" s="63"/>
     </row>
     <row r="15" spans="1:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="71"/>
+        <v>79</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="62">
+        <v>40113826</v>
+      </c>
+      <c r="E15" s="63"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
       <c r="O15" s="29"/>
@@ -1633,16 +1622,16 @@
     </row>
     <row r="16" spans="1:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="71"/>
+        <v>80</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="62">
+        <v>40135132</v>
+      </c>
+      <c r="E16" s="63"/>
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
       <c r="M16" s="29"/>
@@ -1655,16 +1644,16 @@
     </row>
     <row r="17" spans="1:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="71"/>
+        <v>85</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="62">
+        <v>40188880</v>
+      </c>
+      <c r="E17" s="63"/>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="M17" s="29"/>
@@ -1676,50 +1665,50 @@
       <c r="S17" s="29"/>
     </row>
     <row r="18" spans="1:19" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
     </row>
     <row r="19" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
     </row>
     <row r="20" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="I20" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>73</v>
-      </c>
       <c r="J20" s="47" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K20" s="46" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L20" s="49"/>
       <c r="M20" s="29"/>
@@ -1732,10 +1721,10 @@
     </row>
     <row r="21" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
@@ -1762,7 +1751,7 @@
         <v>16</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L21" s="35"/>
     </row>
@@ -1771,7 +1760,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C22" s="17">
         <v>1</v>
@@ -1798,7 +1787,7 @@
         <v>16</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L22" s="35"/>
     </row>
@@ -1820,10 +1809,10 @@
     </row>
     <row r="24" spans="1:19" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C24" s="53">
         <v>4</v>
@@ -1850,7 +1839,7 @@
         <v>16</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L24" s="37"/>
     </row>
@@ -1872,10 +1861,10 @@
     </row>
     <row r="26" spans="1:19" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C26" s="53">
         <v>2</v>
@@ -1902,7 +1891,7 @@
         <v>16</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L26" s="37"/>
     </row>
@@ -1924,10 +1913,10 @@
     </row>
     <row r="28" spans="1:19" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C28" s="12">
         <v>5</v>
@@ -1954,16 +1943,16 @@
         <v>16</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L28" s="37"/>
     </row>
     <row r="29" spans="1:19" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C29" s="53">
         <v>2</v>
@@ -1990,7 +1979,7 @@
         <v>16</v>
       </c>
       <c r="K29" s="28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L29" s="37"/>
     </row>
@@ -2012,10 +2001,10 @@
     </row>
     <row r="31" spans="1:19" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C31" s="12">
         <v>5</v>
@@ -2042,16 +2031,16 @@
         <v>16</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L31" s="37"/>
     </row>
     <row r="32" spans="1:19" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C32" s="12">
         <v>5</v>
@@ -2078,16 +2067,16 @@
         <v>16</v>
       </c>
       <c r="K32" s="28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L32" s="37"/>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C33" s="53">
         <v>2</v>
@@ -2114,7 +2103,7 @@
         <v>16</v>
       </c>
       <c r="K33" s="28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L33" s="37"/>
     </row>
@@ -2136,10 +2125,10 @@
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C35" s="20">
         <v>5</v>
@@ -2166,14 +2155,14 @@
         <v>16</v>
       </c>
       <c r="K35" s="28" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L35" s="37"/>
     </row>
     <row r="36" spans="1:12" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
       <c r="B36" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C36" s="12">
         <v>5</v>
@@ -2200,14 +2189,14 @@
         <v>16</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L36" s="37"/>
     </row>
     <row r="37" spans="1:12" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="54"/>
       <c r="B37" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C37" s="12">
         <v>3</v>
@@ -2234,16 +2223,16 @@
         <v>16</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L37" s="37"/>
     </row>
     <row r="38" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C38" s="53">
         <v>1</v>
@@ -2270,7 +2259,7 @@
         <v>16</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L38" s="37"/>
     </row>
@@ -2292,10 +2281,10 @@
     </row>
     <row r="40" spans="1:12" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C40" s="12">
         <v>5</v>
@@ -2322,16 +2311,16 @@
         <v>16</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L40" s="37"/>
     </row>
     <row r="41" spans="1:12" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -2358,16 +2347,16 @@
         <v>16</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L41" s="37"/>
     </row>
     <row r="42" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C42" s="53">
         <v>1</v>
@@ -2394,7 +2383,7 @@
         <v>16</v>
       </c>
       <c r="K42" s="28" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L42" s="37"/>
     </row>
@@ -2416,10 +2405,10 @@
     </row>
     <row r="44" spans="1:12" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -2446,16 +2435,16 @@
         <v>16</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L44" s="37"/>
     </row>
     <row r="45" spans="1:12" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C45" s="12">
         <v>5</v>
@@ -2482,16 +2471,16 @@
         <v>16</v>
       </c>
       <c r="K45" s="28" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L45" s="37"/>
     </row>
     <row r="46" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C46" s="53">
         <v>2</v>
@@ -2518,7 +2507,7 @@
         <v>16</v>
       </c>
       <c r="K46" s="28" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L46" s="37"/>
     </row>
@@ -2540,10 +2529,10 @@
     </row>
     <row r="48" spans="1:12" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C48" s="12">
         <v>7</v>
@@ -2570,16 +2559,16 @@
         <v>16</v>
       </c>
       <c r="K48" s="28" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L48" s="37"/>
     </row>
     <row r="49" spans="1:12" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C49" s="12">
         <v>9</v>
@@ -2606,16 +2595,16 @@
         <v>16</v>
       </c>
       <c r="K49" s="28" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L49" s="37"/>
     </row>
     <row r="50" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C50" s="53">
         <v>2</v>
@@ -2642,7 +2631,7 @@
         <v>16</v>
       </c>
       <c r="K50" s="28" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L50" s="37"/>
     </row>
@@ -2664,10 +2653,10 @@
     </row>
     <row r="52" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
@@ -2694,16 +2683,16 @@
         <v>16</v>
       </c>
       <c r="K52" s="28" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L52" s="37"/>
     </row>
     <row r="53" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C53" s="12">
         <v>5</v>
@@ -2730,16 +2719,16 @@
         <v>16</v>
       </c>
       <c r="K53" s="28" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L53" s="37"/>
     </row>
     <row r="54" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C54" s="53">
         <v>2</v>
@@ -2766,7 +2755,7 @@
         <v>16</v>
       </c>
       <c r="K54" s="28" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L54" s="37"/>
     </row>
@@ -2788,10 +2777,10 @@
     </row>
     <row r="56" spans="1:12" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C56" s="12">
         <v>5</v>
@@ -2818,16 +2807,16 @@
         <v>16</v>
       </c>
       <c r="K56" s="28" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L56" s="37"/>
     </row>
     <row r="57" spans="1:12" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C57" s="12">
         <v>6</v>
@@ -2854,16 +2843,16 @@
         <v>16</v>
       </c>
       <c r="K57" s="28" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L57" s="37"/>
     </row>
     <row r="58" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C58" s="53">
         <v>2</v>
@@ -2890,7 +2879,7 @@
         <v>16</v>
       </c>
       <c r="K58" s="28" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L58" s="37"/>
     </row>
@@ -2912,10 +2901,10 @@
     </row>
     <row r="60" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C60" s="12">
         <v>1</v>
@@ -2942,16 +2931,16 @@
         <v>16</v>
       </c>
       <c r="K60" s="28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L60" s="37"/>
     </row>
     <row r="61" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C61" s="12">
         <v>5</v>
@@ -2978,16 +2967,16 @@
         <v>16</v>
       </c>
       <c r="K61" s="28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L61" s="37"/>
     </row>
     <row r="62" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C62" s="53">
         <v>2</v>
@@ -3014,7 +3003,7 @@
         <v>16</v>
       </c>
       <c r="K62" s="28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L62" s="37"/>
     </row>
@@ -3036,10 +3025,10 @@
     </row>
     <row r="64" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C64" s="12">
         <v>6</v>
@@ -3066,16 +3055,16 @@
         <v>16</v>
       </c>
       <c r="K64" s="28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L64" s="37"/>
     </row>
     <row r="65" spans="1:12" ht="147.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C65" s="12">
         <v>7</v>
@@ -3102,16 +3091,16 @@
         <v>16</v>
       </c>
       <c r="K65" s="28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L65" s="37"/>
     </row>
     <row r="66" spans="1:12" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C66" s="53">
         <v>2</v>
@@ -3138,13 +3127,13 @@
         <v>16</v>
       </c>
       <c r="K66" s="28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L66" s="37"/>
     </row>
     <row r="67" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3160,10 +3149,10 @@
     </row>
     <row r="68" spans="1:12" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C68" s="53">
         <v>7</v>
@@ -3190,7 +3179,7 @@
         <v>16</v>
       </c>
       <c r="K68" s="28" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L68" s="37"/>
     </row>
@@ -3199,7 +3188,7 @@
         <v>14</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C69" s="16">
         <v>5</v>
@@ -3226,12 +3215,12 @@
         <v>16</v>
       </c>
       <c r="K69" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B70" s="21" t="s">
         <v>16</v>
@@ -3271,7 +3260,7 @@
     </row>
     <row r="71" spans="1:12" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B71" s="21" t="s">
         <v>16</v>
@@ -3353,12 +3342,17 @@
   </sheetData>
   <sheetProtection formatRows="0"/>
   <mergeCells count="29">
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B16:C16"/>
@@ -3371,17 +3365,12 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
